--- a/data/trans_bre/P16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Edad-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.99745684330406</v>
+        <v>1.811780329022682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1218259089862315</v>
+        <v>-0.1956203380684027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.202294902424835</v>
+        <v>1.28989122438058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.132611284696485</v>
+        <v>0.2363672707016557</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9466574313533982</v>
+        <v>1.343442593763543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2978148960700912</v>
+        <v>-0.3436323404971709</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -688,22 +688,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.682007517845411</v>
+        <v>5.789317528670892</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.992679642774671</v>
+        <v>3.103456316474081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.690529999276323</v>
+        <v>4.758492190751565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.333395866550932</v>
+        <v>5.420949988591557</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27.75985032126244</v>
+        <v>29.34546181035056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8.627876005410064</v>
+        <v>9.000826814731834</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.23413407671118</v>
+        <v>2.177964684822525</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.172289748315455</v>
+        <v>2.06313117660758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2283263125540091</v>
+        <v>0.2883322352805284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5440436713986392</v>
+        <v>-0.2598852523607839</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.497574461764374</v>
+        <v>1.377123611029119</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8897409896871717</v>
+        <v>0.6690782731656123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.009770138344925829</v>
+        <v>-0.04314271096137096</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4401023118622101</v>
+        <v>-0.3294633388817718</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.725180074393606</v>
+        <v>5.893333882582316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.354452356441254</v>
+        <v>6.288258502338424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.160742975464528</v>
+        <v>3.445424643170493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.931368010905265</v>
+        <v>3.965740645047142</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>15.47946547785609</v>
+        <v>14.08396872370183</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>9.43113687660323</v>
+        <v>8.97914301363531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.687250544348993</v>
+        <v>6.68741168960399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>10.69218468195493</v>
+        <v>12.15049948275011</v>
       </c>
     </row>
     <row r="10">
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7380180803963435</v>
+        <v>-0.7229900687145687</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.224783016582707</v>
+        <v>3.423651749463587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.144247818979568</v>
+        <v>2.005345904791883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3392766580291943</v>
+        <v>0.2395362271492309</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2711787395406569</v>
+        <v>-0.3109094854699931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.255328213247366</v>
+        <v>2.198794664393534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.569065899588297</v>
+        <v>1.430160489402262</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.003145470397966501</v>
+        <v>0.01414728453984632</v>
       </c>
     </row>
     <row r="12">
@@ -884,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.84321904593779</v>
+        <v>2.950616689155214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.153758691406631</v>
+        <v>7.127194312681937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.412284589172719</v>
+        <v>5.252226835697369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.099082839605617</v>
+        <v>3.099571868872548</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.110941230234332</v>
+        <v>2.156714785984487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>23.80069449287194</v>
+        <v>22.9492421805256</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>28.14560050271059</v>
+        <v>24.54595207510559</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.967731786008088</v>
+        <v>5.679791673801169</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         <v>2.968374948866607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.871904577869667</v>
+        <v>2.871904577869668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.459641445930563</v>
@@ -941,7 +941,7 @@
         <v>2.84921731041736</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.276062817125012</v>
+        <v>1.276062817125013</v>
       </c>
     </row>
     <row r="14">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4447960496088949</v>
+        <v>0.4812839492628532</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.985321264873163</v>
+        <v>1.865516694960181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.330125417317231</v>
+        <v>1.299940378796954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9705995369342767</v>
+        <v>0.9928773392494049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02610390975026604</v>
+        <v>0.1203818882854606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.113213312740419</v>
+        <v>1.07294855669493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5422337335452492</v>
+        <v>0.4639150248623771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2571789713801617</v>
+        <v>0.2363969998988263</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.823760613752376</v>
+        <v>4.715591995983754</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.947909989952839</v>
+        <v>5.928711451318351</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.122676167825377</v>
+        <v>5.080879861438565</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.511154422233296</v>
+        <v>4.436005474452739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.404697083327203</v>
+        <v>6.252746428490632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14.80497369517713</v>
+        <v>17.258503311815</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9.983689715330588</v>
+        <v>9.403883200126153</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.485274477165342</v>
+        <v>3.087452840670705</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1029,7 @@
         <v>2.334789729009155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.473183232362409</v>
+        <v>3.473183232362408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.08902346381342</v>
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.458426263304418</v>
+        <v>0.3614493427271439</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.09957905314254</v>
+        <v>3.256632559550564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2463549209948425</v>
+        <v>0.1407355499151047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.41079224736324</v>
+        <v>1.127429738024271</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0050555655760914</v>
+        <v>0.01983914981908806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.650733486422904</v>
+        <v>1.88510613621271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01003377457889641</v>
+        <v>-0.08571692626245467</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2661958824377356</v>
+        <v>0.2455690815747091</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.735609911312477</v>
+        <v>6.690280600481861</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.935771828039578</v>
+        <v>7.953001414599664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.546443173066369</v>
+        <v>4.389134093234071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.749246527082691</v>
+        <v>5.475529204203442</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.28254461498784</v>
+        <v>3.336545881746951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33.06613312010548</v>
+        <v>39.21112290318189</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6.307587224478158</v>
+        <v>6.033286466948094</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.133946850368584</v>
+        <v>2.174737650088295</v>
       </c>
     </row>
     <row r="19">
@@ -1152,28 +1152,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.436948505437728</v>
+        <v>2.371195409644665</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7435459745475148</v>
+        <v>0.9821787312826238</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9887799816763996</v>
+        <v>0.9524565797280924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9881500399152454</v>
+        <v>1.252391169612749</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3125804476421667</v>
+        <v>0.3109915819071378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06735019283290371</v>
+        <v>-0.0009251137476466373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2209991299507974</v>
+        <v>0.147811344640035</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1734944382301325</v>
+        <v>0.2640493145125241</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.408677144997</v>
+        <v>10.26978098100081</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.416914040338005</v>
+        <v>8.464821468087054</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.728430696024552</v>
+        <v>6.695211638230321</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.817289224582725</v>
+        <v>5.686661741268738</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.013943839343034</v>
+        <v>3.947334451082265</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.792140212654191</v>
+        <v>4.603781080878414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.801131437639791</v>
+        <v>7.133549272311492</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.491212226328102</v>
+        <v>2.718430516061129</v>
       </c>
     </row>
     <row r="22">
@@ -1241,7 +1241,7 @@
         <v>0.52109317257752</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.71236605234945</v>
+        <v>1.712366052349451</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.154597780373871</v>
+        <v>-6.30000902723132</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.325133270816558</v>
+        <v>3.827309661263994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.03355173022119</v>
+        <v>-1.359165079843724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.951489080653436</v>
+        <v>4.192363575842725</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5491011008010178</v>
+        <v>-0.5512902808125998</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4739051446675221</v>
+        <v>0.4427025818814396</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2321836377576714</v>
+        <v>-0.2599965574102046</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6527006641166309</v>
+        <v>0.6893135297459643</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.707639345396561</v>
+        <v>3.86257852411517</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.94748328294809</v>
+        <v>13.2083396307304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.036152355649762</v>
+        <v>5.985664038440568</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.237098937402234</v>
+        <v>9.820348661542381</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7493511160241377</v>
+        <v>0.8009921390060463</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>8.985193259813373</v>
+        <v>8.410505241978239</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.447135398511569</v>
+        <v>2.189640461518868</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.495335926345925</v>
+        <v>3.55418169699623</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>2.87269678810577</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.180543007946193</v>
+        <v>3.180543007946194</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.376907360033012</v>
@@ -1341,7 +1341,7 @@
         <v>2.249706295343539</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.457853599291178</v>
+        <v>1.457853599291179</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.211126767615859</v>
+        <v>2.173102469565743</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.816693123672622</v>
+        <v>3.824292577811324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.140304209023484</v>
+        <v>2.057330158623405</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.389180822683541</v>
+        <v>2.38780185369129</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8377779439290916</v>
+        <v>0.8438751673625086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.278558596138256</v>
+        <v>2.260385596812485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.314083383765437</v>
+        <v>1.309197940912486</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9152702916187836</v>
+        <v>0.9304390770652931</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.06033163925753</v>
+        <v>3.878063272834015</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.730598330145803</v>
+        <v>5.681895431504177</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.711480436571282</v>
+        <v>3.722997565226859</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.912307111556226</v>
+        <v>4.032059390923529</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.241371513236181</v>
+        <v>2.100665002654981</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.59022527895242</v>
+        <v>5.320766503302611</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.602444302661751</v>
+        <v>3.647390536646646</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.122590181670235</v>
+        <v>2.325676674789016</v>
       </c>
     </row>
     <row r="28">
